--- a/docs/assets/disciplinas/LOQ4072.xlsx
+++ b/docs/assets/disciplinas/LOQ4072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Propiciar os conhecimentos básicos dos Princípios da Separação por Membranas. Transmitir conhecimentos gerais que permitam entender a tecnologia envolvida nos diferentes tipos de Processos de Separação por Membranas e conhecer os materiais mais utilizados na fabricação de membranas e seus respectivos processos de fabricação. Estudar os componentes fenomenológicos envolvidos nos mecanismos de transporte através das membranas, e identificar as principais vantagens, desvantagens e aplicações deste tipo de processo de separação.</t>
+    <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>787307 - Luis Fernando Figueiredo Faria</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Classificação dos processos com membranas e suas aplicações. Técnicas de preparo dos diferentes tipos de membranas poliméricas. Tipos de módulos e suas principais características. Fundamentos teóricos da síntese de membranas pela inversão de fases; influência das variáveis de síntese nas características de transporte das membranas. Apresentação dos diferentes tipos de processos com membranas. Aplicações. Projeto para uma aplicação específica.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução: Histórico e definição de processos de separação com membranas: comparação com processos clássicos de separação. Processos com membranas mais utilizados: classificação e aplicações. 2. Membranas: Definição; materiais empregados; classificação quanto à estrutura e quanto ao tipo de separação a que se destina; membranas microporosas: técnicas de fabricação e características. Síntese de membranas pela técnica da inversão de fases:aspectos termodinâmicos e cinéticos.3. Fundamentos dos Processos de Separação por Membranas: mecanismos de transporte em membranas densas e microporosas.4. Membranas e Módulos Comerciais: geometria de membranas; técnicas de fabricação de membranas planas, membranas do tipo fibra oca e tubulares. Módulos: tipo placa, espiral, tubular e fibra oca.5. Processos Comerciais de Separação com Membranas. Principais características aplicações.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,30 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - HABERT, A. C.; BORGES, C. P.; NÓBREGA, R. Processos de separação por membranas. Rio de Janeiro: E-papers, 2006. 180p.
-2 - BAKER, R. W. Membrane Technology and Applications. 2nd. ed. Chichester : John Wiley &amp; Sons, 2004. 
-3 - MULDER, M. Basic Principles of Membrane Technology. Holanda: Klumer Academic Publishers, 1991.
-4 - CHERYAN, M. Ultrafiltration and Microfiltration Handbook. USA: Technomic Publishing Co. Inc, 1998.
-5 - Membrane Handbook. Ed. W.S.W Ho and K.K. Sirkar. New York : Chapman &amp; Hall, 1992.
-6 - RAUTENBACH, R.; ALBRECHT, R. Membrane Processes / Ed. Antony Rowe Ltd. Wiltshire, Great Britain, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -501,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -673,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4072.xlsx
+++ b/docs/assets/disciplinas/LOQ4072.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Propiciar os conhecimentos básicos dos Princípios da Separação por Membranas. Transmitir conhecimentos gerais que permitam entender a tecnologia envolvida nos diferentes tipos de Processos de Separação por Membranas e conhecer os materiais mais utilizados na fabricação de membranas e seus respectivos processos de fabricação. Estudar os componentes fenomenológicos envolvidos nos mecanismos de transporte através das membranas, e identificar as principais vantagens, desvantagens e aplicações deste tipo de processo de separação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide basic knowledge of the Principles of Membrane Separation. Provide general information to understand the technology involved in the different types of Membrane Separation Processes and to know the materials most used in the manufacture of membranes and their respective manufacturing processes. To study the phenomenological components involved in the mechanisms of transport through the membranes, and to identify the main advantages, disadvantages and applications of this type of separation process.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide basic knowledge of the Principles of Membrane Separation. Provide general information to understand the technology involved in the different types of Membrane Separation Processes and to know the materials most used in the manufacture of membranes and their respective manufacturing processes. To study the phenomenological components involved in the mechanisms of transport through the membranes, and to identify the main advantages, disadvantages and applications of this type of separation process.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Classificação dos processos com membranas e suas aplicações. Técnicas de preparo dos diferentes tipos de membranas poliméricas. Tipos de módulos e suas principais características. Fundamentos teóricos da síntese de membranas pela inversão de fases; influência das variáveis de síntese nas características de transporte das membranas. Apresentação dos diferentes tipos de processos com membranas. Aplicações. Projeto para uma aplicação específica.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução: Histórico e definição de processos de separação com membranas: comparação com processos clássicos de separação. Processos com membranas mais utilizados: classificação e aplicações. 2. Membranas: Definição; materiais empregados; classificação quanto à estrutura e quanto ao tipo de separação a que se destina; membranas microporosas: técnicas de fabricação e características. Síntese de membranas pela técnica da inversão de fases:aspectos termodinâmicos e cinéticos.3. Fundamentos dos Processos de Separação por Membranas: mecanismos de transporte em membranas densas e microporosas.4. Membranas e Módulos Comerciais: geometria de membranas; técnicas de fabricação de membranas planas, membranas do tipo fibra oca e tubulares. Módulos: tipo placa, espiral, tubular e fibra oca.5. Processos Comerciais de Separação com Membranas. Principais características aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
+    <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
+    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
+    <t>1 - HABERT, A. C.; BORGES, C. P.; NÓBREGA, R. Processos de separação por membranas. Rio de Janeiro: E-papers, 2006. 180p.
+2 - BAKER, R. W. Membrane Technology and Applications. 2nd. ed. Chichester : John Wiley &amp; Sons, 2004. 
+3 - MULDER, M. Basic Principles of Membrane Technology. Holanda: Klumer Academic Publishers, 1991.
+4 - CHERYAN, M. Ultrafiltration and Microfiltration Handbook. USA: Technomic Publishing Co. Inc, 1998.
+5 - Membrane Handbook. Ed. W.S.W Ho and K.K. Sirkar. New York : Chapman &amp; Hall, 1992.
+6 - RAUTENBACH, R.; ALBRECHT, R. Membrane Processes / Ed. Antony Rowe Ltd. Wiltshire, Great Britain, 1994.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +632,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +673,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
